--- a/Numerical methods/LW5/LW5.xlsx
+++ b/Numerical methods/LW5/LW5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\studies\Numerical methods\LW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\studies\Numerical methods\LW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55115DB7-940F-44A0-8FFD-EEACBC136901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7504570D-138A-420C-B4EA-5113CDBB3A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчеты" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -155,14 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,37 +2000,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>4.5565511399999998</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2102,7 +2097,7 @@
         <v>1.1102230246251565E-16</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2136,7 +2131,7 @@
         <v>1.8929566499999999</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2170,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2189,23 +2184,23 @@
         <v>0.70254591</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="1" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="K7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="I8" t="s">
         <v>7</v>
       </c>
@@ -2225,7 +2220,7 @@
         <v>1.1314900000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1</v>
       </c>
@@ -2261,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>-1</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v>-0.44036999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>1</v>
       </c>
@@ -2331,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>-1</v>
       </c>
@@ -2351,30 +2346,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K13" s="3" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="K13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L13">
         <v>1.1314900000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="K14" s="3" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" cm="1">
         <f t="array" ref="B15:E18">MMULT(B9:F12,B2:E6)</f>
         <v>5</v>
@@ -2388,14 +2383,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L15">
         <v>-0.44036999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -2408,14 +2403,14 @@
       <c r="E16">
         <v>2.125</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2.5</v>
       </c>
@@ -2429,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -2442,16 +2437,16 @@
       <c r="E18">
         <v>2.03125</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="3" t="s">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="K19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L19" t="s">
@@ -2464,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K20">
         <f>L13</f>
         <v>1.1314900000000001</v>
@@ -2500,27 +2495,27 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
       <c r="G1" t="s">
         <v>16</v>
       </c>
@@ -2534,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2560,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -2576,7 +2571,7 @@
         <v>0.69112000000000018</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-0.95918367000000004</v>
       </c>
@@ -2592,7 +2587,7 @@
         <v>0.7263349300446118</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-0.91836735000000003</v>
       </c>
@@ -2608,7 +2603,7 @@
         <v>0.76008256312161815</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-0.87755101999999996</v>
       </c>
@@ -2624,7 +2619,7 @@
         <v>0.79236291576736229</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-0.83673469</v>
       </c>
@@ -2640,7 +2635,7 @@
         <v>0.82317597953392951</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-0.79591836999999999</v>
       </c>
@@ -2656,7 +2651,7 @@
         <v>0.8525217474113489</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-0.75510204000000003</v>
       </c>
@@ -2672,7 +2667,7 @@
         <v>0.88040023377904841</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>-0.71428570999999996</v>
       </c>
@@ -2688,7 +2683,7 @@
         <v>0.90681143126757158</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-0.67346938999999995</v>
       </c>
@@ -2704,7 +2699,7 @@
         <v>0.93175533394540366</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-0.63265305999999999</v>
       </c>
@@ -2720,7 +2715,7 @@
         <v>0.95523195403505901</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>-0.59183673000000003</v>
       </c>
@@ -2736,7 +2731,7 @@
         <v>0.97724128524553766</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>-0.55102041000000002</v>
       </c>
@@ -2752,7 +2747,7 @@
         <v>0.99778332272378267</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-0.51020407999999995</v>
       </c>
@@ -2768,7 +2763,7 @@
         <v>1.0168580765353936</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-0.46938775999999999</v>
       </c>
@@ -2784,7 +2779,7 @@
         <v>1.0344655373337424</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-0.42857142999999998</v>
       </c>
@@ -2800,7 +2795,7 @@
         <v>1.0506057137464859</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>-0.38775510000000002</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>1.0652786012800526</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-0.34693878</v>
       </c>
@@ -2832,7 +2827,7 @@
         <v>1.0784841968788141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>-0.30612244999999999</v>
       </c>
@@ -2848,7 +2843,7 @@
         <v>1.0902225070135132</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>-0.26530611999999998</v>
       </c>
@@ -2864,7 +2859,7 @@
         <v>1.1004935282690358</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>-0.22448979999999999</v>
       </c>
@@ -2880,7 +2875,7 @@
         <v>1.1092972586682099</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>-0.18367347000000001</v>
       </c>
@@ -2896,7 +2891,7 @@
         <v>1.1166337025248649</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>-0.14285713999999999</v>
       </c>
@@ -2912,7 +2907,7 @@
         <v>1.122502857502343</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>-0.10204082</v>
       </c>
@@ -2928,7 +2923,7 @@
         <v>1.1269047227019302</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>-6.1224489999999999E-2</v>
       </c>
@@ -2944,7 +2939,7 @@
         <v>1.1298393002805407</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>-2.0408160000000002E-2</v>
       </c>
@@ -2960,7 +2955,7 @@
         <v>1.1313065889799745</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2.0408160000000002E-2</v>
       </c>
@@ -2976,7 +2971,7 @@
         <v>1.1313065889799745</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6.1224489999999999E-2</v>
       </c>
@@ -2992,7 +2987,7 @@
         <v>1.1298393002805407</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.10204082</v>
       </c>
@@ -3008,7 +3003,7 @@
         <v>1.1269047227019302</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14285713999999999</v>
       </c>
@@ -3024,7 +3019,7 @@
         <v>1.122502857502343</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.18367347000000001</v>
       </c>
@@ -3040,7 +3035,7 @@
         <v>1.1166337025248649</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.22448979999999999</v>
       </c>
@@ -3056,7 +3051,7 @@
         <v>1.1092972586682099</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.26530611999999998</v>
       </c>
@@ -3072,7 +3067,7 @@
         <v>1.1004935282690358</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.30612244999999999</v>
       </c>
@@ -3088,7 +3083,7 @@
         <v>1.0902225070135132</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34693878</v>
       </c>
@@ -3104,7 +3099,7 @@
         <v>1.0784841968788141</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.38775510000000002</v>
       </c>
@@ -3120,7 +3115,7 @@
         <v>1.0652786012800526</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.42857142999999998</v>
       </c>
@@ -3136,7 +3131,7 @@
         <v>1.0506057137464859</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.46938775999999999</v>
       </c>
@@ -3152,7 +3147,7 @@
         <v>1.0344655373337424</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.51020407999999995</v>
       </c>
@@ -3168,7 +3163,7 @@
         <v>1.0168580765353936</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.55102041000000002</v>
       </c>
@@ -3184,7 +3179,7 @@
         <v>0.99778332272378267</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.59183673000000003</v>
       </c>
@@ -3200,7 +3195,7 @@
         <v>0.97724128524553766</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.63265305999999999</v>
       </c>
@@ -3216,7 +3211,7 @@
         <v>0.95523195403505901</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.67346938999999995</v>
       </c>
@@ -3232,7 +3227,7 @@
         <v>0.93175533394540366</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.71428570999999996</v>
       </c>
@@ -3248,7 +3243,7 @@
         <v>0.90681143126757158</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.75510204000000003</v>
       </c>
@@ -3264,7 +3259,7 @@
         <v>0.88040023377904841</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.79591836999999999</v>
       </c>
@@ -3280,7 +3275,7 @@
         <v>0.8525217474113489</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.83673469</v>
       </c>
@@ -3296,7 +3291,7 @@
         <v>0.82317597953392951</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.87755101999999996</v>
       </c>
@@ -3312,7 +3307,7 @@
         <v>0.79236291576736229</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.91836735000000003</v>
       </c>
@@ -3328,7 +3323,7 @@
         <v>0.76008256312161815</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.95918367000000004</v>
       </c>
@@ -3344,7 +3339,7 @@
         <v>0.7263349300446118</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1</v>
       </c>
